--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisco/Dropbox/Estudos/Data/Python/dashEstados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisco/Dropbox/Estudos/Data/Python/Environments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758CF959-B3EE-964E-B379-8B3DA879B42C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52841CA5-9881-254D-84BA-D56C938AC687}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="460" windowWidth="21100" windowHeight="17100" activeTab="1" xr2:uid="{2184D749-8611-904A-ABE6-4596C639FEE6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17100" activeTab="1" xr2:uid="{2184D749-8611-904A-ABE6-4596C639FEE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Compilado" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>UF</t>
   </si>
@@ -89,6 +89,162 @@
   </si>
   <si>
     <t>Ceará</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Acre</t>
+  </si>
+  <si>
+    <t>Alagoas</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Amapá</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Distrito Federal</t>
+  </si>
+  <si>
+    <t>Espírito Santo</t>
+  </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>Maranhão</t>
+  </si>
+  <si>
+    <t>Minas Gerais</t>
+  </si>
+  <si>
+    <t>Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t>Mato Grosso</t>
+  </si>
+  <si>
+    <t>Pará</t>
+  </si>
+  <si>
+    <t>Paraíba</t>
+  </si>
+  <si>
+    <t>Pernambuco</t>
+  </si>
+  <si>
+    <t>Piauí</t>
+  </si>
+  <si>
+    <t>Paraná</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t>Rondônia</t>
+  </si>
+  <si>
+    <t>Roraima</t>
+  </si>
+  <si>
+    <t>Rio Grande do Sul</t>
+  </si>
+  <si>
+    <t>Santa Catarina</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
+    <t>Tocantins</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Todos os Estados</t>
   </si>
 </sst>
 </file>
@@ -160,17 +316,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -191,6 +345,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,24 +1660,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382335A9-A7F8-2F4A-87B2-B1443864BF02}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C29" sqref="C29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1525,37 +1692,479 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80850995.25</v>
+      </c>
+      <c r="D2" s="1">
+        <v>112741576.53999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>22739787.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1">
+        <v>97605762.760000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>142099875.30000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>31066373.748571426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1">
+        <v>68709612.840000004</v>
+      </c>
+      <c r="D4" s="1">
+        <v>257967655.43000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>24838586.86857143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1">
+        <v>76212467.480000004</v>
+      </c>
+      <c r="D5" s="1">
+        <v>133547895.78</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20913678.251428567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1">
+        <v>207675013.56</v>
+      </c>
+      <c r="D6" s="1">
+        <v>501363226.05999994</v>
+      </c>
+      <c r="E6" s="1">
+        <v>79831888.271428555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>161876126.99000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>313652664.37</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44847774.600000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15498503.560000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>157189067.12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>33783427.332857139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <v>37582309.390000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>226270726.63</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40529506.174285717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1">
+        <v>62955125.369999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>324782174.19999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>90625733.644285709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1">
+        <v>160833683.09</v>
+      </c>
+      <c r="D11" s="1">
+        <v>254932824.52000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>49402858.32571429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1">
+        <v>102718322.95999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>858160920.90999997</v>
+      </c>
+      <c r="E12" s="1">
+        <v>57961052.284285702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
+        <v>32000638.379999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>173512889.87</v>
+      </c>
+      <c r="E13" s="1">
+        <v>49213283.738571435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
+        <v>51451000.390000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>359101015.95999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>34483958.821428567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1">
+        <v>140910772.68000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>353242524.26999998</v>
+      </c>
+      <c r="E15" s="1">
+        <v>39188542.621428579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1">
+        <v>104762133.36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>157728812.23000002</v>
+      </c>
+      <c r="E16" s="1">
+        <v>18341704.559999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1">
+        <v>153998633.31</v>
+      </c>
+      <c r="D17" s="1">
+        <v>346880035.89999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>87784326.209999979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1">
+        <v>98459308.879999995</v>
+      </c>
+      <c r="D18" s="1">
+        <v>128546376.76000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20687761.738571428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>63094121.689999998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>489612879.60000002</v>
+      </c>
+      <c r="E19" s="1">
+        <v>71726297.025714278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42600808.18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>612373602.84000003</v>
+      </c>
+      <c r="E20" s="1">
+        <v>122423767.73857144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1">
+        <v>95036446.980000004</v>
+      </c>
+      <c r="D21" s="1">
+        <v>142934331.59999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>66323012.319999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1">
+        <v>66732957.810000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>114809722.21000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>17214958.162857141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1">
+        <v>59616095.369999997</v>
+      </c>
+      <c r="D23" s="1">
+        <v>85020072.50999999</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8975351.9200000018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1">
+        <v>47784335.619999997</v>
+      </c>
+      <c r="D24" s="1">
+        <v>549888579.13999999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>48570667.572857164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1">
+        <v>27325464</v>
+      </c>
+      <c r="D25" s="1">
+        <v>333905188.25</v>
+      </c>
+      <c r="E25" s="1">
+        <v>103476035.82285714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1">
+        <v>92934219.219999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>114647866.38999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>27674207.605714288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C27" s="13">
         <v>22522815.850000001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D27" s="3">
         <v>1902828983.78</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E27" s="14">
         <v>1419984105.3957143</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>161876126.99000001</v>
-      </c>
-      <c r="D3">
-        <v>313652664.37</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44847774.600000009</v>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1">
+        <v>95054447.530000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>102258511.83</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3790495.31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>2266802122.5</v>
+      </c>
+      <c r="D29">
+        <v>9250000000.0000019</v>
+      </c>
+      <c r="E29">
+        <v>2636399143.1357141</v>
       </c>
     </row>
   </sheetData>
@@ -1565,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC27665-77EE-FE4C-B0B2-732245FB6E34}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1578,7 +2187,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2">
         <v>43466</v>
       </c>
@@ -1611,73 +2222,983 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>120161150.22</v>
+      </c>
+      <c r="C2">
+        <v>111329869.66</v>
+      </c>
+      <c r="D2">
+        <v>102229183.04000001</v>
+      </c>
+      <c r="E2">
+        <v>109348315.55</v>
+      </c>
+      <c r="F2">
+        <v>98589827.640000001</v>
+      </c>
+      <c r="G2">
+        <v>120702424.48999999</v>
+      </c>
+      <c r="H2">
+        <v>103170994</v>
+      </c>
+      <c r="I2">
+        <v>105922733.23999999</v>
+      </c>
+      <c r="J2">
+        <v>100494964.36</v>
+      </c>
+      <c r="K2" s="11">
+        <v>77434978.8699999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>386695325</v>
+      </c>
+      <c r="C3">
+        <v>344011858</v>
+      </c>
+      <c r="D3">
+        <v>332960427</v>
+      </c>
+      <c r="E3">
+        <v>322912019</v>
+      </c>
+      <c r="F3">
+        <v>323403538</v>
+      </c>
+      <c r="G3" s="11">
+        <v>413209167.47999901</v>
+      </c>
+      <c r="H3">
+        <v>368039633.69</v>
+      </c>
+      <c r="I3">
+        <v>331866958.49000001</v>
+      </c>
+      <c r="J3" s="11">
+        <v>290313769.28999901</v>
+      </c>
+      <c r="K3">
+        <v>246705195.15000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11">
+        <v>778101393.71999896</v>
+      </c>
+      <c r="C4">
+        <v>838023704.04999995</v>
+      </c>
+      <c r="D4">
+        <v>713137705.98000002</v>
+      </c>
+      <c r="E4" s="11">
+        <v>755925392.14999998</v>
+      </c>
+      <c r="F4" s="11">
+        <v>819698285.60000002</v>
+      </c>
+      <c r="G4">
+        <v>920938117.78999996</v>
+      </c>
+      <c r="H4" s="11">
+        <v>917375262.62</v>
+      </c>
+      <c r="I4">
+        <v>830351687.84000003</v>
+      </c>
+      <c r="J4">
+        <v>751480757.50999999</v>
+      </c>
+      <c r="K4">
+        <v>648928149.20000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>76287477</v>
+      </c>
+      <c r="C5">
+        <v>66556681</v>
+      </c>
+      <c r="D5">
+        <v>66673406</v>
+      </c>
+      <c r="E5">
+        <v>78967835</v>
+      </c>
+      <c r="F5">
+        <v>68756590.230000004</v>
+      </c>
+      <c r="G5">
+        <v>86074324.319999993</v>
+      </c>
+      <c r="H5">
+        <v>83716779.989999995</v>
+      </c>
+      <c r="I5">
+        <v>70773690.599999994</v>
+      </c>
+      <c r="J5" s="11">
+        <v>70898792.9799999</v>
+      </c>
+      <c r="K5" s="11">
+        <v>52305798.669999897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2003063191.1600001</v>
+      </c>
+      <c r="C6">
+        <v>1950941300.9000001</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1869606773.9099901</v>
+      </c>
+      <c r="E6">
+        <v>1988032776.53</v>
+      </c>
+      <c r="F6">
+        <v>2021566532.5599999</v>
+      </c>
+      <c r="G6">
+        <v>2239870242.6500001</v>
+      </c>
+      <c r="H6">
+        <v>2057314460.9400001</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1948806105.3699999</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1803877326.8099999</v>
+      </c>
+      <c r="K6">
+        <v>1420312439.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1116110114.54</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1015490607.73</v>
+      </c>
+      <c r="D7">
+        <v>974355608</v>
+      </c>
+      <c r="E7">
+        <v>1026387076.33</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1025656435.5599999</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1252891775.4300001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1044627340.76</v>
+      </c>
+      <c r="I7" s="5">
+        <v>983883590.70000005</v>
+      </c>
+      <c r="J7" s="5">
+        <v>778904629.55999994</v>
+      </c>
+      <c r="K7" s="5">
+        <v>641686258.75999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>700584241.14999998</v>
+      </c>
+      <c r="C8" s="11">
+        <v>639822375.06999898</v>
+      </c>
+      <c r="D8" s="11">
+        <v>646543198.35999894</v>
+      </c>
+      <c r="E8">
+        <v>628750025.74000001</v>
+      </c>
+      <c r="F8">
+        <v>670491216.26999998</v>
+      </c>
+      <c r="G8">
+        <v>803964519.19000006</v>
+      </c>
+      <c r="H8">
+        <v>729790602.45000005</v>
+      </c>
+      <c r="I8">
+        <v>717143451.03999996</v>
+      </c>
+      <c r="J8">
+        <v>555825044.47000003</v>
+      </c>
+      <c r="K8">
+        <v>544112736.79999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>963465852</v>
+      </c>
+      <c r="C9">
+        <v>965665825</v>
+      </c>
+      <c r="D9">
+        <v>878640132.14999998</v>
+      </c>
+      <c r="E9" s="11">
+        <v>930737450.23999906</v>
+      </c>
+      <c r="F9" s="11">
+        <v>982775231.85999894</v>
+      </c>
+      <c r="G9">
+        <v>1120506987.48</v>
+      </c>
+      <c r="H9">
+        <v>908776100.70000005</v>
+      </c>
+      <c r="I9" s="11">
+        <v>950190383.59000003</v>
+      </c>
+      <c r="J9">
+        <v>883793659.59000003</v>
+      </c>
+      <c r="K9">
+        <v>683665752.63999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>1475531578</v>
+      </c>
+      <c r="C10">
+        <v>1330603339</v>
+      </c>
+      <c r="D10">
+        <v>1313744248</v>
+      </c>
+      <c r="E10">
+        <v>1335267975</v>
+      </c>
+      <c r="F10">
+        <v>1416008694</v>
+      </c>
+      <c r="G10">
+        <v>1566095528.4100001</v>
+      </c>
+      <c r="H10">
+        <v>1392156848.3499999</v>
+      </c>
+      <c r="I10">
+        <v>1363464215.0999999</v>
+      </c>
+      <c r="J10">
+        <v>1189552815.27</v>
+      </c>
+      <c r="K10">
+        <v>1165736300.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>647181352</v>
+      </c>
+      <c r="C11">
+        <v>576131158</v>
+      </c>
+      <c r="D11">
+        <v>556244709</v>
+      </c>
+      <c r="E11">
+        <v>579859840</v>
+      </c>
+      <c r="F11" s="11">
+        <v>610812532.52999997</v>
+      </c>
+      <c r="G11">
+        <v>821249321.25</v>
+      </c>
+      <c r="H11">
+        <v>647819942.41999996</v>
+      </c>
+      <c r="I11">
+        <v>615308050.40999997</v>
+      </c>
+      <c r="J11">
+        <v>558815152.5</v>
+      </c>
+      <c r="K11">
+        <v>493548838.00999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>4250234408</v>
+      </c>
+      <c r="C12">
+        <v>4032636394</v>
+      </c>
+      <c r="D12">
+        <v>3939544136</v>
+      </c>
+      <c r="E12">
+        <v>4685608973</v>
+      </c>
+      <c r="F12">
+        <v>4171359948</v>
+      </c>
+      <c r="G12">
+        <v>4580059107</v>
+      </c>
+      <c r="H12">
+        <v>4168475207</v>
+      </c>
+      <c r="I12">
+        <v>4014699660</v>
+      </c>
+      <c r="J12">
+        <v>3648157291</v>
+      </c>
+      <c r="K12">
+        <v>3497284370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>790779228</v>
+      </c>
+      <c r="C13">
+        <v>794304363</v>
+      </c>
+      <c r="D13">
+        <v>796748384</v>
+      </c>
+      <c r="E13">
+        <v>798109795</v>
+      </c>
+      <c r="F13" s="11">
+        <v>789158892.81999898</v>
+      </c>
+      <c r="G13" s="11">
+        <v>888043526.56999898</v>
+      </c>
+      <c r="H13">
+        <v>868821486.27999997</v>
+      </c>
+      <c r="I13">
+        <v>969286627.54999995</v>
+      </c>
+      <c r="J13" s="11">
+        <v>841107495.30999994</v>
+      </c>
+      <c r="K13" s="11">
+        <v>721534932.06999898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>827898595</v>
+      </c>
+      <c r="C14">
+        <v>1011593935</v>
+      </c>
+      <c r="D14">
+        <v>1094166233</v>
+      </c>
+      <c r="E14">
+        <v>1142672667</v>
+      </c>
+      <c r="F14">
+        <v>1013684304</v>
+      </c>
+      <c r="G14">
+        <v>1127444340.5599999</v>
+      </c>
+      <c r="H14">
+        <v>1337172193.1800001</v>
+      </c>
+      <c r="I14">
+        <v>1273610079.75</v>
+      </c>
+      <c r="J14">
+        <v>1163447259</v>
+      </c>
+      <c r="K14">
+        <v>1008954740.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>1010970357</v>
+      </c>
+      <c r="C15">
+        <v>937743394</v>
+      </c>
+      <c r="D15">
+        <v>890934172</v>
+      </c>
+      <c r="E15">
+        <v>898532007</v>
+      </c>
+      <c r="F15">
+        <v>963507348</v>
+      </c>
+      <c r="G15">
+        <v>1171914171</v>
+      </c>
+      <c r="H15">
+        <v>1059179389</v>
+      </c>
+      <c r="I15">
+        <v>959223773</v>
+      </c>
+      <c r="J15">
+        <v>976077825</v>
+      </c>
+      <c r="K15">
+        <v>829214383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>526841598</v>
+      </c>
+      <c r="C16">
+        <v>476894324</v>
+      </c>
+      <c r="D16">
+        <v>454105308</v>
+      </c>
+      <c r="E16">
+        <v>468856305.67000002</v>
+      </c>
+      <c r="F16">
+        <v>496607626.22000003</v>
+      </c>
+      <c r="G16">
+        <v>575571225.92999995</v>
+      </c>
+      <c r="H16" s="11">
+        <v>501923009.56</v>
+      </c>
+      <c r="I16">
+        <v>467835983.60000002</v>
+      </c>
+      <c r="J16">
+        <v>429493642.52999997</v>
+      </c>
+      <c r="K16" s="11">
+        <v>356658563.95999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>1520407506</v>
+      </c>
+      <c r="C17">
+        <v>1259298896</v>
+      </c>
+      <c r="D17">
+        <v>1322164062.1099999</v>
+      </c>
+      <c r="E17">
+        <v>1434744617</v>
+      </c>
+      <c r="F17">
+        <v>1417894281.0999999</v>
+      </c>
+      <c r="G17">
+        <v>1633181474.3099999</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1339489956.3299999</v>
+      </c>
+      <c r="I17">
+        <v>1344615094.0599999</v>
+      </c>
+      <c r="J17">
+        <v>1315968827.8</v>
+      </c>
+      <c r="K17">
+        <v>939070271.36000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="11">
+        <v>422516276.19999897</v>
+      </c>
+      <c r="C18" s="11">
+        <v>322688454.95999998</v>
+      </c>
+      <c r="D18" s="11">
+        <v>290816047.299999</v>
+      </c>
+      <c r="E18">
+        <v>441263491.99000001</v>
+      </c>
+      <c r="F18">
+        <v>314844049.92000002</v>
+      </c>
+      <c r="G18" s="11">
+        <v>435618415.669999</v>
+      </c>
+      <c r="H18">
+        <v>376747380.76999998</v>
+      </c>
+      <c r="I18">
+        <v>353671858.26999998</v>
+      </c>
+      <c r="J18">
+        <v>289871692.74000001</v>
+      </c>
+      <c r="K18" s="11">
+        <v>251131793.16999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>2755948374.6599998</v>
+      </c>
+      <c r="C19">
+        <v>2398983420.29</v>
+      </c>
+      <c r="D19">
+        <v>2603873699.9299998</v>
+      </c>
+      <c r="E19">
+        <v>2553935211</v>
+      </c>
+      <c r="F19">
+        <v>2543888799.0599999</v>
+      </c>
+      <c r="G19">
+        <v>2973838136.54</v>
+      </c>
+      <c r="H19">
+        <v>2607916663.5799999</v>
+      </c>
+      <c r="I19">
+        <v>2530534953.3200002</v>
+      </c>
+      <c r="J19">
+        <v>2193715675.0999999</v>
+      </c>
+      <c r="K19">
+        <v>1815308729.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>3586300279</v>
+      </c>
+      <c r="C20">
+        <v>3192884890</v>
+      </c>
+      <c r="D20">
+        <v>2763545553</v>
+      </c>
+      <c r="E20">
+        <v>3193576901</v>
+      </c>
+      <c r="F20">
+        <v>2983787437</v>
+      </c>
+      <c r="G20" s="11">
+        <v>3689196167.51999</v>
+      </c>
+      <c r="H20">
+        <v>3452220123.2600002</v>
+      </c>
+      <c r="I20" s="11">
+        <v>3071305130.5599999</v>
+      </c>
+      <c r="J20" s="11">
+        <v>2717291387.54</v>
+      </c>
+      <c r="K20">
+        <v>2212986454.3099999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>536922394</v>
+      </c>
+      <c r="C21">
+        <v>465359743</v>
+      </c>
+      <c r="D21">
+        <v>453353407</v>
+      </c>
+      <c r="E21">
+        <v>465917555</v>
+      </c>
+      <c r="F21">
+        <v>443280861</v>
+      </c>
+      <c r="G21" s="11">
+        <v>515387443.26999998</v>
+      </c>
+      <c r="H21" s="11">
+        <v>470066484</v>
+      </c>
+      <c r="I21">
+        <v>454647022</v>
+      </c>
+      <c r="J21" s="11">
+        <v>395097287.06</v>
+      </c>
+      <c r="K21" s="11">
+        <v>371641947.65999901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>347169929</v>
+      </c>
+      <c r="C22">
+        <v>279510979</v>
+      </c>
+      <c r="D22">
+        <v>263668097</v>
+      </c>
+      <c r="E22">
+        <v>321203829</v>
+      </c>
+      <c r="F22">
+        <v>344112450</v>
+      </c>
+      <c r="G22" s="11">
+        <v>376447974.28999901</v>
+      </c>
+      <c r="H22">
+        <v>331454459.42000002</v>
+      </c>
+      <c r="I22">
+        <v>323229811.13999999</v>
+      </c>
+      <c r="J22">
+        <v>279650958.56</v>
+      </c>
+      <c r="K22">
+        <v>287649975.44999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>83962311</v>
+      </c>
+      <c r="C23">
+        <v>77040159</v>
+      </c>
+      <c r="D23">
+        <v>76717516</v>
+      </c>
+      <c r="E23">
+        <v>92863287</v>
+      </c>
+      <c r="F23">
+        <v>98469304</v>
+      </c>
+      <c r="G23" s="11">
+        <v>101995703.06999999</v>
+      </c>
+      <c r="H23">
+        <v>87793749.5</v>
+      </c>
+      <c r="I23">
+        <v>95643655.510000005</v>
+      </c>
+      <c r="J23">
+        <v>93385155.659999996</v>
+      </c>
+      <c r="K23" s="11">
+        <v>91561861.900000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>2729899077</v>
+      </c>
+      <c r="C24">
+        <v>2814176072</v>
+      </c>
+      <c r="D24">
+        <v>2803894227</v>
+      </c>
+      <c r="E24">
+        <v>2987288334</v>
+      </c>
+      <c r="F24" s="11">
+        <v>2839760410.5499902</v>
+      </c>
+      <c r="G24">
+        <v>3334673993.1199999</v>
+      </c>
+      <c r="H24" s="11">
+        <v>3123355061.8999901</v>
+      </c>
+      <c r="I24" s="11">
+        <v>2887472732.0499902</v>
+      </c>
+      <c r="J24" s="11">
+        <v>2606217214.3199902</v>
+      </c>
+      <c r="K24">
+        <v>2066995110.1300001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>2052405070</v>
+      </c>
+      <c r="C25">
+        <v>1979724917</v>
+      </c>
+      <c r="D25">
+        <v>1850494492</v>
+      </c>
+      <c r="E25">
+        <v>1917948166</v>
+      </c>
+      <c r="F25">
+        <v>1869627314</v>
+      </c>
+      <c r="G25">
+        <v>2216677058.4499998</v>
+      </c>
+      <c r="H25" s="11">
+        <v>2169799812.2999902</v>
+      </c>
+      <c r="I25" s="11">
+        <v>2013069207.0899999</v>
+      </c>
+      <c r="J25">
+        <v>1551434078.3199999</v>
+      </c>
+      <c r="K25">
+        <v>1410291028.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>317843455</v>
+      </c>
+      <c r="C26">
+        <v>282674478</v>
+      </c>
+      <c r="D26">
+        <v>266538933</v>
+      </c>
+      <c r="E26">
+        <v>280212855</v>
+      </c>
+      <c r="F26">
+        <v>287964332</v>
+      </c>
+      <c r="G26">
+        <v>324419405</v>
+      </c>
+      <c r="H26">
+        <v>290810201</v>
+      </c>
+      <c r="I26">
+        <v>278947641</v>
+      </c>
+      <c r="J26">
+        <v>251484830</v>
+      </c>
+      <c r="K26">
+        <v>210675571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B27" s="5">
         <v>12631904535</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C27" s="5">
         <v>11549508908</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D27" s="5">
         <v>11553522139</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E27" s="5">
         <v>12279643749</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F27" s="5">
         <v>11978089753</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G27" s="5">
         <v>13257024996.98</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H27" s="5">
         <v>12071175907.120001</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I27" s="5">
         <v>12337901906.48</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J27" s="5">
         <v>10635309051.360001</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K27" s="5">
         <v>9245132514.5100002</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1116110114.54</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1015490607.73</v>
-      </c>
-      <c r="D3">
-        <v>974355608</v>
-      </c>
-      <c r="E3">
-        <v>1026387076.33</v>
-      </c>
-      <c r="F3" s="13">
-        <v>1025656435.5599999</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1252891775.4300001</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1044627340.76</v>
-      </c>
-      <c r="I3" s="7">
-        <v>983883590.70000005</v>
-      </c>
-      <c r="J3" s="7">
-        <v>778904629.55999994</v>
-      </c>
-      <c r="K3" s="7">
-        <v>641686258.75999999</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>245594313</v>
+      </c>
+      <c r="C28">
+        <v>234074469</v>
+      </c>
+      <c r="D28">
+        <v>222574790</v>
+      </c>
+      <c r="E28">
+        <v>237955199</v>
+      </c>
+      <c r="F28">
+        <v>242575427</v>
+      </c>
+      <c r="G28">
+        <v>272729142.32999998</v>
+      </c>
+      <c r="H28" s="11">
+        <v>237505717.019999</v>
+      </c>
+      <c r="I28">
+        <v>242086423.56999999</v>
+      </c>
+      <c r="J28">
+        <v>225206431.13999999</v>
+      </c>
+      <c r="K28">
+        <v>219043328.61000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29">
+        <v>42904779380.650002</v>
+      </c>
+      <c r="C29">
+        <v>39947674514.660004</v>
+      </c>
+      <c r="D29">
+        <v>39100796587.779984</v>
+      </c>
+      <c r="E29">
+        <v>41956521648.199997</v>
+      </c>
+      <c r="F29">
+        <v>40836371421.919991</v>
+      </c>
+      <c r="G29">
+        <v>46819724690.099991</v>
+      </c>
+      <c r="H29">
+        <v>42746694767.139984</v>
+      </c>
+      <c r="I29">
+        <v>41535492425.329987</v>
+      </c>
+      <c r="J29">
+        <v>36596873014.779991</v>
+      </c>
+      <c r="K29">
+        <v>31509572024.340004</v>
       </c>
     </row>
   </sheetData>
@@ -1732,28 +3253,28 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>12.631904535</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>13.25702499698</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <f>C3</f>
         <v>12.631904535</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <f>D3</f>
         <v>13.25702499698</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <f>F3/E3-1</f>
         <v>4.9487427667612494E-2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <f>F3-E3</f>
         <v>0.62512046197999993</v>
       </c>
@@ -1762,25 +3283,25 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>11.549508908</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>12.071175907120001</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <f>E3+C4</f>
         <v>24.181413443</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <f>F3+D4</f>
         <v>25.328200904100001</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <f t="shared" ref="G4:G7" si="0">F4/E4-1</f>
         <v>4.7424335380691796E-2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:H7" si="1">F4-E4</f>
         <v>1.1467874611000006</v>
       </c>
@@ -1789,25 +3310,25 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>11.553522139</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>12.337901906479999</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f t="shared" ref="E5:E7" si="2">E4+C5</f>
         <v>35.734935581999999</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f t="shared" ref="F5:F7" si="3">F4+D5</f>
         <v>37.66610281058</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>5.4041435842205665E-2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1.9311672285800014</v>
       </c>
@@ -1816,25 +3337,25 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>12.279643749</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>10.63530905136</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f t="shared" si="2"/>
         <v>48.014579331</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f t="shared" si="3"/>
         <v>48.301411861939997</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>5.9738632502150946E-3</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>0.28683253093999639</v>
       </c>
@@ -1843,31 +3364,31 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>11.978089753000001</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>9.2451325145100007</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f t="shared" si="2"/>
         <v>59.992669083999999</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f t="shared" si="3"/>
         <v>57.546544376450001</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>-4.0773726938619914E-2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>-2.4461247075499983</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="8"/>
+      <c r="C9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
